--- a/tool/e2e-tests/test-packs/Prescription Types Test Pack.xlsx
+++ b/tool/e2e-tests/test-packs/Prescription Types Test Pack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\clients\NHS\electronic-prescription-service-api\tool\e2e-tests\test-packs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC0CD0A-9F75-4EFE-B790-EA292B683CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54FE0A1-9443-4FFA-BFC9-B7ECCBCAA2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" activeTab="4" xr2:uid="{DE2866F1-D839-4AD2-B338-FF4A1D84F7C7}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7932" uniqueCount="3510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7933" uniqueCount="3511">
   <si>
     <t>Quantity</t>
   </si>
@@ -10573,6 +10573,9 @@
   </si>
   <si>
     <t>01233321120</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
 </sst>
 </file>
@@ -11120,7 +11123,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C49" sqref="C49"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -46757,7 +46760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4197C79A-0579-4860-90D6-E5D60D4D545C}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
@@ -46766,7 +46769,7 @@
     <col min="2" max="2" width="17.86328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7265625" customWidth="1"/>
     <col min="4" max="4" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6796875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.6328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6328125" bestFit="1" customWidth="1"/>
@@ -47584,8 +47587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C133380D-4E1B-455A-8449-1E31A0484160}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -47954,35 +47957,35 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="18">
-        <v>11</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>3455</v>
-      </c>
-      <c r="C12" s="17">
-        <v>197</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>3463</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>3473</v>
-      </c>
-      <c r="F12" s="34" t="s">
-        <v>3474</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>3472</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>3471</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>3470</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>3482</v>
+      <c r="A12" s="3" t="s">
+        <v>3510</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>3320</v>
+      </c>
+      <c r="C12">
+        <v>76</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3314</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3321</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3322</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3324</v>
+      </c>
+      <c r="H12" t="s">
+        <v>3326</v>
+      </c>
+      <c r="I12" t="s">
+        <v>3328</v>
+      </c>
+      <c r="J12" t="s">
+        <v>3330</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -47993,7 +47996,7 @@
         <v>3455</v>
       </c>
       <c r="C13" s="17">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>3463</v>
@@ -48025,7 +48028,7 @@
         <v>3455</v>
       </c>
       <c r="C14" s="17">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>3463</v>
@@ -48057,7 +48060,7 @@
         <v>3455</v>
       </c>
       <c r="C15" s="17">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>3463</v>
@@ -48089,7 +48092,7 @@
         <v>3455</v>
       </c>
       <c r="C16" s="17">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>3463</v>
@@ -48121,7 +48124,7 @@
         <v>3455</v>
       </c>
       <c r="C17" s="17">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>3463</v>
@@ -48153,7 +48156,7 @@
         <v>3455</v>
       </c>
       <c r="C18" s="17">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>3463</v>
@@ -48185,7 +48188,7 @@
         <v>3455</v>
       </c>
       <c r="C19" s="17">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>3463</v>
@@ -48217,7 +48220,7 @@
         <v>3455</v>
       </c>
       <c r="C20" s="17">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>3463</v>
@@ -48249,7 +48252,7 @@
         <v>3455</v>
       </c>
       <c r="C21" s="17">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>3463</v>
@@ -48281,7 +48284,7 @@
         <v>3455</v>
       </c>
       <c r="C22" s="17">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>3463</v>
@@ -48313,7 +48316,7 @@
         <v>3464</v>
       </c>
       <c r="C23" s="21">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D23" s="21" t="s">
         <v>3463</v>
@@ -48345,7 +48348,7 @@
         <v>3464</v>
       </c>
       <c r="C24" s="21">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D24" s="21" t="s">
         <v>3463</v>
@@ -48377,7 +48380,7 @@
         <v>3464</v>
       </c>
       <c r="C25" s="21">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D25" s="21" t="s">
         <v>3463</v>
@@ -48409,7 +48412,7 @@
         <v>3464</v>
       </c>
       <c r="C26" s="21">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D26" s="21" t="s">
         <v>3463</v>
@@ -48441,7 +48444,7 @@
         <v>3464</v>
       </c>
       <c r="C27" s="21">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D27" s="21" t="s">
         <v>3463</v>
@@ -48473,7 +48476,7 @@
         <v>3464</v>
       </c>
       <c r="C28" s="21">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D28" s="21" t="s">
         <v>3463</v>
@@ -48505,7 +48508,7 @@
         <v>3464</v>
       </c>
       <c r="C29" s="21">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D29" s="21" t="s">
         <v>3463</v>
@@ -48537,7 +48540,7 @@
         <v>3464</v>
       </c>
       <c r="C30" s="21">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D30" s="21" t="s">
         <v>3463</v>
@@ -48569,7 +48572,7 @@
         <v>3464</v>
       </c>
       <c r="C31" s="21">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D31" s="21" t="s">
         <v>3463</v>
@@ -48601,7 +48604,7 @@
         <v>3464</v>
       </c>
       <c r="C32" s="21">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D32" s="21" t="s">
         <v>3463</v>
@@ -48633,7 +48636,7 @@
         <v>3496</v>
       </c>
       <c r="C33" s="43">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D33" s="43" t="s">
         <v>3463</v>
@@ -48665,7 +48668,7 @@
         <v>3496</v>
       </c>
       <c r="C34" s="43">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D34" s="43" t="s">
         <v>3463</v>
@@ -48700,8 +48703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F596A6-89A4-48F4-9C0E-6D3A55A64C45}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/tool/e2e-tests/test-packs/Prescription Types Test Pack.xlsx
+++ b/tool/e2e-tests/test-packs/Prescription Types Test Pack.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.shahzad/EPS/electronic-prescription-service-api/tool/e2e-tests/test-packs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathew.arnold\electronic-prescription-service-api\tool\e2e-tests\test-packs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5A5CE10-1CB1-5A4E-A4B2-7A1526738BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFBDA7B-EEAC-4654-840C-D4A3FDBC9E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="72960" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="16186" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,11 @@
     <sheet name="Accounts" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7945" uniqueCount="3518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7967" uniqueCount="3513">
   <si>
     <t>Test</t>
   </si>
@@ -10319,9 +10318,6 @@
   </si>
   <si>
     <t>0105</t>
-  </si>
-  <si>
-    <t>P3</t>
   </si>
   <si>
     <t>Lumecare Hypromellose 0.3% eye drops (Medicom Healthcare Ltd)</t>
@@ -10568,26 +10564,14 @@
     <t>Validation rules: Column names must be exact, no more than 4 medications per test reference</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>0004</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>P1</t>
-  </si>
-  <si>
-    <t>P2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10637,6 +10621,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -11188,30 +11178,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="14.35"/>
   <cols>
-    <col min="1" max="1" width="75.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="12.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="75.46875" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="12.46875" style="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>3506</v>
+        <v>3505</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="41" t="s">
+        <v>3506</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>3507</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="18" t="s">
         <v>3508</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>3509</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.25" customHeight="1">
       <c r="A2" s="30" t="s">
-        <v>3510</v>
+        <v>3509</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -11220,7 +11210,7 @@
     </row>
     <row r="3" spans="1:5" ht="17.25" customHeight="1">
       <c r="A3" s="30" t="s">
-        <v>3511</v>
+        <v>3510</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -11229,7 +11219,7 @@
     </row>
     <row r="4" spans="1:5" ht="17.25" customHeight="1">
       <c r="A4" s="30" t="s">
-        <v>3512</v>
+        <v>3511</v>
       </c>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
@@ -11250,28 +11240,28 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="14.35"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.64453125" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.46875" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.64453125" style="27" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30" style="60" customWidth="1"/>
     <col min="6" max="6" width="16" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.3515625" style="28" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="71.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.83203125" style="28" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.1640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.1640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="19.1640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.1640625" style="55" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.1640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="20" max="56" width="12.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="71.46875" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.64453125" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.8203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.17578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.17578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="19.17578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.17578125" style="55" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.17578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="20" max="56" width="12.46875" style="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="17.25" customHeight="1">
@@ -11382,7 +11372,7 @@
       </c>
       <c r="D2" s="43"/>
       <c r="E2" s="56" t="s">
-        <v>3514</v>
+        <v>3512</v>
       </c>
       <c r="F2" s="40">
         <v>1</v>
@@ -11464,7 +11454,7 @@
       </c>
       <c r="D3" s="43"/>
       <c r="E3" s="56" t="s">
-        <v>3515</v>
+        <v>3512</v>
       </c>
       <c r="F3" s="40">
         <v>1</v>
@@ -11546,7 +11536,7 @@
       </c>
       <c r="D4" s="40"/>
       <c r="E4" s="56" t="s">
-        <v>3516</v>
+        <v>3512</v>
       </c>
       <c r="F4" s="40">
         <v>1</v>
@@ -11628,7 +11618,7 @@
       </c>
       <c r="D5" s="40"/>
       <c r="E5" s="56" t="s">
-        <v>3517</v>
+        <v>3512</v>
       </c>
       <c r="F5" s="40">
         <v>1</v>
@@ -11640,7 +11630,7 @@
         <v>28</v>
       </c>
       <c r="I5" s="44" t="s">
-        <v>3432</v>
+        <v>3431</v>
       </c>
       <c r="J5" s="45">
         <v>99999999</v>
@@ -11649,7 +11639,7 @@
         <v>10</v>
       </c>
       <c r="L5" s="44" t="s">
-        <v>3433</v>
+        <v>3432</v>
       </c>
       <c r="M5" s="45">
         <v>11111111</v>
@@ -11706,11 +11696,11 @@
         <v>3423</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>3434</v>
+        <v>3433</v>
       </c>
       <c r="D6" s="40"/>
       <c r="E6" s="56" t="s">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="F6" s="40">
         <v>1</v>
@@ -11722,7 +11712,7 @@
         <v>28</v>
       </c>
       <c r="I6" s="44" t="s">
-        <v>3435</v>
+        <v>3434</v>
       </c>
       <c r="J6" s="45">
         <v>99999999</v>
@@ -11731,13 +11721,13 @@
         <v>8</v>
       </c>
       <c r="L6" s="44" t="s">
-        <v>3436</v>
+        <v>3435</v>
       </c>
       <c r="M6" s="45">
         <v>11111111</v>
       </c>
       <c r="N6" s="46" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
@@ -11790,11 +11780,11 @@
         <v>3423</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="D7" s="40"/>
       <c r="E7" s="56" t="s">
-        <v>3431</v>
+        <v>3512</v>
       </c>
       <c r="F7" s="40">
         <v>1</v>
@@ -11806,7 +11796,7 @@
         <v>28</v>
       </c>
       <c r="I7" s="44" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
       <c r="J7" s="45">
         <v>99999999</v>
@@ -11815,7 +11805,7 @@
         <v>10</v>
       </c>
       <c r="L7" s="44" t="s">
-        <v>3436</v>
+        <v>3435</v>
       </c>
       <c r="M7" s="45">
         <v>11111111</v>
@@ -11872,11 +11862,11 @@
         <v>3423</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>3440</v>
+        <v>3439</v>
       </c>
       <c r="D8" s="40"/>
       <c r="E8" s="56" t="s">
-        <v>3513</v>
+        <v>3512</v>
       </c>
       <c r="F8" s="40">
         <v>1</v>
@@ -11888,7 +11878,7 @@
         <v>28</v>
       </c>
       <c r="I8" s="44" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="J8" s="45">
         <v>99999999</v>
@@ -11897,16 +11887,16 @@
         <v>10000</v>
       </c>
       <c r="L8" s="44" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="M8" s="45">
         <v>11111111</v>
       </c>
       <c r="N8" s="46" t="s">
+        <v>3442</v>
+      </c>
+      <c r="O8" s="41" t="s">
         <v>3443</v>
-      </c>
-      <c r="O8" s="41" t="s">
-        <v>3444</v>
       </c>
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
@@ -11914,7 +11904,7 @@
         <v>2</v>
       </c>
       <c r="S8" s="41" t="s">
-        <v>3445</v>
+        <v>3444</v>
       </c>
       <c r="T8" s="8"/>
       <c r="U8" s="8"/>
@@ -11962,11 +11952,11 @@
         <v>3423</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
       <c r="D9" s="40"/>
       <c r="E9" s="56" t="s">
-        <v>3513</v>
+        <v>3512</v>
       </c>
       <c r="F9" s="40">
         <v>1</v>
@@ -11978,7 +11968,7 @@
         <v>28</v>
       </c>
       <c r="I9" s="44" t="s">
-        <v>3447</v>
+        <v>3446</v>
       </c>
       <c r="J9" s="45">
         <v>99999999</v>
@@ -11987,13 +11977,13 @@
         <v>2</v>
       </c>
       <c r="L9" s="44" t="s">
-        <v>3436</v>
+        <v>3435</v>
       </c>
       <c r="M9" s="45">
         <v>11111111</v>
       </c>
       <c r="N9" s="44" t="s">
-        <v>3448</v>
+        <v>3447</v>
       </c>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
@@ -12046,11 +12036,11 @@
         <v>3423</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="D10" s="40"/>
       <c r="E10" s="56" t="s">
-        <v>3513</v>
+        <v>3512</v>
       </c>
       <c r="F10" s="40">
         <v>1</v>
@@ -12062,7 +12052,7 @@
         <v>28</v>
       </c>
       <c r="I10" s="44" t="s">
-        <v>3450</v>
+        <v>3449</v>
       </c>
       <c r="J10" s="45">
         <v>99999999</v>
@@ -12071,7 +12061,7 @@
         <v>300</v>
       </c>
       <c r="L10" s="44" t="s">
-        <v>3433</v>
+        <v>3432</v>
       </c>
       <c r="M10" s="45">
         <v>11111111</v>
@@ -12128,11 +12118,11 @@
         <v>3423</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
       <c r="D11" s="40"/>
       <c r="E11" s="56" t="s">
-        <v>3513</v>
+        <v>3512</v>
       </c>
       <c r="F11" s="40">
         <v>1</v>
@@ -12144,7 +12134,7 @@
         <v>28</v>
       </c>
       <c r="I11" s="44" t="s">
-        <v>3452</v>
+        <v>3451</v>
       </c>
       <c r="J11" s="45">
         <v>99999999</v>
@@ -12153,7 +12143,7 @@
         <v>56</v>
       </c>
       <c r="L11" s="44" t="s">
-        <v>3436</v>
+        <v>3435</v>
       </c>
       <c r="M11" s="45">
         <v>11111111</v>
@@ -12210,11 +12200,11 @@
         <v>3423</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>3453</v>
+        <v>3452</v>
       </c>
       <c r="D12" s="40"/>
       <c r="E12" s="56" t="s">
-        <v>3513</v>
+        <v>3512</v>
       </c>
       <c r="F12" s="40">
         <v>1</v>
@@ -12226,7 +12216,7 @@
         <v>28</v>
       </c>
       <c r="I12" s="44" t="s">
-        <v>3454</v>
+        <v>3453</v>
       </c>
       <c r="J12" s="45">
         <v>99999999</v>
@@ -12235,7 +12225,7 @@
         <v>7</v>
       </c>
       <c r="L12" s="44" t="s">
-        <v>3436</v>
+        <v>3435</v>
       </c>
       <c r="M12" s="45">
         <v>11111111</v>
@@ -12292,10 +12282,12 @@
         <v>3423</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="57"/>
+      <c r="E13" s="57" t="s">
+        <v>3512</v>
+      </c>
       <c r="F13" s="11">
         <v>1</v>
       </c>
@@ -12306,7 +12298,7 @@
         <v>28</v>
       </c>
       <c r="I13" s="47" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="J13" s="48">
         <v>99999999</v>
@@ -12315,7 +12307,7 @@
         <v>100</v>
       </c>
       <c r="L13" s="49" t="s">
-        <v>3433</v>
+        <v>3432</v>
       </c>
       <c r="M13" s="48">
         <v>11111111</v>
@@ -12372,10 +12364,12 @@
         <v>3423</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>3457</v>
+        <v>3456</v>
       </c>
       <c r="D14" s="11"/>
-      <c r="E14" s="57"/>
+      <c r="E14" s="57" t="s">
+        <v>3512</v>
+      </c>
       <c r="F14" s="11">
         <v>1</v>
       </c>
@@ -12386,7 +12380,7 @@
         <v>28</v>
       </c>
       <c r="I14" s="47" t="s">
-        <v>3458</v>
+        <v>3457</v>
       </c>
       <c r="J14" s="48">
         <v>99999999</v>
@@ -12395,13 +12389,13 @@
         <v>15</v>
       </c>
       <c r="L14" s="49" t="s">
-        <v>3459</v>
+        <v>3458</v>
       </c>
       <c r="M14" s="48">
         <v>11111111</v>
       </c>
       <c r="N14" s="49" t="s">
-        <v>3460</v>
+        <v>3459</v>
       </c>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
@@ -12454,10 +12448,12 @@
         <v>3423</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>3461</v>
+        <v>3460</v>
       </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="57"/>
+      <c r="E15" s="57" t="s">
+        <v>3512</v>
+      </c>
       <c r="F15" s="11">
         <v>1</v>
       </c>
@@ -12468,7 +12464,7 @@
         <v>28</v>
       </c>
       <c r="I15" s="49" t="s">
-        <v>3462</v>
+        <v>3461</v>
       </c>
       <c r="J15" s="48">
         <v>99999999</v>
@@ -12477,7 +12473,7 @@
         <v>50</v>
       </c>
       <c r="L15" s="49" t="s">
-        <v>3433</v>
+        <v>3432</v>
       </c>
       <c r="M15" s="48">
         <v>11111111</v>
@@ -12534,10 +12530,12 @@
         <v>3423</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D16" s="11"/>
-      <c r="E16" s="57"/>
+      <c r="E16" s="57" t="s">
+        <v>3512</v>
+      </c>
       <c r="F16" s="11">
         <v>1</v>
       </c>
@@ -12548,7 +12546,7 @@
         <v>28</v>
       </c>
       <c r="I16" s="49" t="s">
-        <v>3464</v>
+        <v>3463</v>
       </c>
       <c r="J16" s="48">
         <v>99999999</v>
@@ -12557,7 +12555,7 @@
         <v>60</v>
       </c>
       <c r="L16" s="49" t="s">
-        <v>3465</v>
+        <v>3464</v>
       </c>
       <c r="M16" s="48">
         <v>11111111</v>
@@ -12614,10 +12612,12 @@
         <v>3423</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>3466</v>
+        <v>3465</v>
       </c>
       <c r="D17" s="11"/>
-      <c r="E17" s="57"/>
+      <c r="E17" s="57" t="s">
+        <v>3512</v>
+      </c>
       <c r="F17" s="11">
         <v>1</v>
       </c>
@@ -12628,7 +12628,7 @@
         <v>28</v>
       </c>
       <c r="I17" s="49" t="s">
-        <v>3467</v>
+        <v>3466</v>
       </c>
       <c r="J17" s="48">
         <v>99999999</v>
@@ -12637,7 +12637,7 @@
         <v>28</v>
       </c>
       <c r="L17" s="49" t="s">
-        <v>3436</v>
+        <v>3435</v>
       </c>
       <c r="M17" s="48">
         <v>11111111</v>
@@ -12694,10 +12694,12 @@
         <v>3423</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>3468</v>
+        <v>3467</v>
       </c>
       <c r="D18" s="11"/>
-      <c r="E18" s="57"/>
+      <c r="E18" s="57" t="s">
+        <v>3512</v>
+      </c>
       <c r="F18" s="11">
         <v>1</v>
       </c>
@@ -12708,7 +12710,7 @@
         <v>28</v>
       </c>
       <c r="I18" s="49" t="s">
-        <v>3469</v>
+        <v>3468</v>
       </c>
       <c r="J18" s="48">
         <v>99999999</v>
@@ -12717,7 +12719,7 @@
         <v>56</v>
       </c>
       <c r="L18" s="49" t="s">
-        <v>3459</v>
+        <v>3458</v>
       </c>
       <c r="M18" s="48">
         <v>11111111</v>
@@ -12774,10 +12776,12 @@
         <v>3423</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>3470</v>
+        <v>3469</v>
       </c>
       <c r="D19" s="11"/>
-      <c r="E19" s="57"/>
+      <c r="E19" s="57" t="s">
+        <v>3512</v>
+      </c>
       <c r="F19" s="11">
         <v>1</v>
       </c>
@@ -12788,7 +12792,7 @@
         <v>28</v>
       </c>
       <c r="I19" s="49" t="s">
-        <v>3471</v>
+        <v>3470</v>
       </c>
       <c r="J19" s="48">
         <v>99999999</v>
@@ -12797,7 +12801,7 @@
         <v>50</v>
       </c>
       <c r="L19" s="49" t="s">
-        <v>3472</v>
+        <v>3471</v>
       </c>
       <c r="M19" s="48">
         <v>11111111</v>
@@ -12854,10 +12858,12 @@
         <v>3423</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>3473</v>
+        <v>3472</v>
       </c>
       <c r="D20" s="11"/>
-      <c r="E20" s="57"/>
+      <c r="E20" s="57" t="s">
+        <v>3512</v>
+      </c>
       <c r="F20" s="11">
         <v>1</v>
       </c>
@@ -12868,7 +12874,7 @@
         <v>28</v>
       </c>
       <c r="I20" s="49" t="s">
-        <v>3474</v>
+        <v>3473</v>
       </c>
       <c r="J20" s="48">
         <v>99999999</v>
@@ -12877,7 +12883,7 @@
         <v>68</v>
       </c>
       <c r="L20" s="49" t="s">
-        <v>3465</v>
+        <v>3464</v>
       </c>
       <c r="M20" s="48">
         <v>11111111</v>
@@ -12934,10 +12940,12 @@
         <v>3423</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
       <c r="D21" s="11"/>
-      <c r="E21" s="57"/>
+      <c r="E21" s="57" t="s">
+        <v>3512</v>
+      </c>
       <c r="F21" s="11">
         <v>1</v>
       </c>
@@ -12948,7 +12956,7 @@
         <v>28</v>
       </c>
       <c r="I21" s="49" t="s">
-        <v>3476</v>
+        <v>3475</v>
       </c>
       <c r="J21" s="48">
         <v>99999999</v>
@@ -12957,7 +12965,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="49" t="s">
-        <v>3477</v>
+        <v>3476</v>
       </c>
       <c r="M21" s="48">
         <v>11111111</v>
@@ -13014,10 +13022,12 @@
         <v>3423</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>3478</v>
+        <v>3477</v>
       </c>
       <c r="D22" s="11"/>
-      <c r="E22" s="57"/>
+      <c r="E22" s="57" t="s">
+        <v>3512</v>
+      </c>
       <c r="F22" s="11">
         <v>1</v>
       </c>
@@ -13028,7 +13038,7 @@
         <v>28</v>
       </c>
       <c r="I22" s="49" t="s">
-        <v>3479</v>
+        <v>3478</v>
       </c>
       <c r="J22" s="48">
         <v>99999999</v>
@@ -13037,7 +13047,7 @@
         <v>10</v>
       </c>
       <c r="L22" s="49" t="s">
-        <v>3433</v>
+        <v>3432</v>
       </c>
       <c r="M22" s="48">
         <v>11111111</v>
@@ -13094,10 +13104,12 @@
         <v>3423</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
       <c r="D23" s="16"/>
-      <c r="E23" s="58"/>
+      <c r="E23" s="58" t="s">
+        <v>3512</v>
+      </c>
       <c r="F23" s="16">
         <v>1</v>
       </c>
@@ -13108,7 +13120,7 @@
         <v>28</v>
       </c>
       <c r="I23" s="50" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="J23" s="51">
         <v>99999999</v>
@@ -13117,7 +13129,7 @@
         <v>20</v>
       </c>
       <c r="L23" s="50" t="s">
-        <v>3481</v>
+        <v>3480</v>
       </c>
       <c r="M23" s="51">
         <v>11111111</v>
@@ -13131,7 +13143,7 @@
       <c r="T23" s="50"/>
       <c r="U23" s="52"/>
       <c r="V23" s="52" t="s">
-        <v>3482</v>
+        <v>3481</v>
       </c>
       <c r="W23" s="8"/>
       <c r="X23" s="8"/>
@@ -13176,10 +13188,12 @@
         <v>3423</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>3457</v>
+        <v>3456</v>
       </c>
       <c r="D24" s="16"/>
-      <c r="E24" s="58"/>
+      <c r="E24" s="58" t="s">
+        <v>3512</v>
+      </c>
       <c r="F24" s="16">
         <v>1</v>
       </c>
@@ -13190,7 +13204,7 @@
         <v>28</v>
       </c>
       <c r="I24" s="50" t="s">
-        <v>3483</v>
+        <v>3482</v>
       </c>
       <c r="J24" s="51">
         <v>99999999</v>
@@ -13212,7 +13226,7 @@
       <c r="S24" s="8"/>
       <c r="T24" s="50"/>
       <c r="U24" s="52" t="s">
-        <v>3484</v>
+        <v>3483</v>
       </c>
       <c r="V24" s="52"/>
       <c r="W24" s="8"/>
@@ -13258,10 +13272,12 @@
         <v>3423</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>3461</v>
+        <v>3460</v>
       </c>
       <c r="D25" s="16"/>
-      <c r="E25" s="58"/>
+      <c r="E25" s="58" t="s">
+        <v>3512</v>
+      </c>
       <c r="F25" s="16">
         <v>1</v>
       </c>
@@ -13272,7 +13288,7 @@
         <v>28</v>
       </c>
       <c r="I25" s="50" t="s">
-        <v>3485</v>
+        <v>3484</v>
       </c>
       <c r="J25" s="51">
         <v>99999999</v>
@@ -13281,7 +13297,7 @@
         <v>20</v>
       </c>
       <c r="L25" s="50" t="s">
-        <v>3486</v>
+        <v>3485</v>
       </c>
       <c r="M25" s="51">
         <v>11111111</v>
@@ -13295,7 +13311,7 @@
       <c r="T25" s="50"/>
       <c r="U25" s="52"/>
       <c r="V25" s="52" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
       <c r="W25" s="8"/>
       <c r="X25" s="8"/>
@@ -13340,10 +13356,12 @@
         <v>3423</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D26" s="16"/>
-      <c r="E26" s="58"/>
+      <c r="E26" s="58" t="s">
+        <v>3512</v>
+      </c>
       <c r="F26" s="16">
         <v>1</v>
       </c>
@@ -13354,7 +13372,7 @@
         <v>28</v>
       </c>
       <c r="I26" s="50" t="s">
-        <v>3488</v>
+        <v>3487</v>
       </c>
       <c r="J26" s="51">
         <v>99999999</v>
@@ -13363,7 +13381,7 @@
         <v>100</v>
       </c>
       <c r="L26" s="50" t="s">
-        <v>3433</v>
+        <v>3432</v>
       </c>
       <c r="M26" s="51">
         <v>11111111</v>
@@ -13376,10 +13394,10 @@
       <c r="S26" s="8"/>
       <c r="T26" s="50"/>
       <c r="U26" s="52" t="s">
+        <v>3488</v>
+      </c>
+      <c r="V26" s="52" t="s">
         <v>3489</v>
-      </c>
-      <c r="V26" s="52" t="s">
-        <v>3490</v>
       </c>
       <c r="W26" s="8"/>
       <c r="X26" s="8"/>
@@ -13424,10 +13442,12 @@
         <v>3423</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>3466</v>
+        <v>3465</v>
       </c>
       <c r="D27" s="16"/>
-      <c r="E27" s="58"/>
+      <c r="E27" s="58" t="s">
+        <v>3512</v>
+      </c>
       <c r="F27" s="16">
         <v>1</v>
       </c>
@@ -13438,7 +13458,7 @@
         <v>28</v>
       </c>
       <c r="I27" s="50" t="s">
-        <v>3491</v>
+        <v>3490</v>
       </c>
       <c r="J27" s="51">
         <v>99999999</v>
@@ -13447,7 +13467,7 @@
         <v>150</v>
       </c>
       <c r="L27" s="50" t="s">
-        <v>3433</v>
+        <v>3432</v>
       </c>
       <c r="M27" s="51">
         <v>11111111</v>
@@ -13461,7 +13481,7 @@
       <c r="T27" s="50"/>
       <c r="U27" s="52"/>
       <c r="V27" s="52" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
       <c r="W27" s="8"/>
       <c r="X27" s="8"/>
@@ -13506,10 +13526,12 @@
         <v>3423</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>3468</v>
+        <v>3467</v>
       </c>
       <c r="D28" s="16"/>
-      <c r="E28" s="58"/>
+      <c r="E28" s="58" t="s">
+        <v>3512</v>
+      </c>
       <c r="F28" s="16">
         <v>1</v>
       </c>
@@ -13520,7 +13542,7 @@
         <v>28</v>
       </c>
       <c r="I28" s="50" t="s">
-        <v>3492</v>
+        <v>3491</v>
       </c>
       <c r="J28" s="51">
         <v>99999999</v>
@@ -13529,7 +13551,7 @@
         <v>1</v>
       </c>
       <c r="L28" s="50" t="s">
-        <v>3493</v>
+        <v>3492</v>
       </c>
       <c r="M28" s="51">
         <v>11111111</v>
@@ -13543,7 +13565,7 @@
       <c r="T28" s="50"/>
       <c r="U28" s="52"/>
       <c r="V28" s="52" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
       <c r="W28" s="8"/>
       <c r="X28" s="8"/>
@@ -13588,10 +13610,12 @@
         <v>3423</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>3470</v>
+        <v>3469</v>
       </c>
       <c r="D29" s="16"/>
-      <c r="E29" s="58"/>
+      <c r="E29" s="58" t="s">
+        <v>3512</v>
+      </c>
       <c r="F29" s="16">
         <v>1</v>
       </c>
@@ -13602,7 +13626,7 @@
         <v>28</v>
       </c>
       <c r="I29" s="50" t="s">
-        <v>3494</v>
+        <v>3493</v>
       </c>
       <c r="J29" s="51">
         <v>99999999</v>
@@ -13611,7 +13635,7 @@
         <v>56</v>
       </c>
       <c r="L29" s="50" t="s">
-        <v>3436</v>
+        <v>3435</v>
       </c>
       <c r="M29" s="51">
         <v>11111111</v>
@@ -13624,7 +13648,7 @@
       <c r="S29" s="8"/>
       <c r="T29" s="50"/>
       <c r="U29" s="52" t="s">
-        <v>3495</v>
+        <v>3494</v>
       </c>
       <c r="V29" s="52"/>
       <c r="W29" s="8"/>
@@ -13670,10 +13694,12 @@
         <v>3423</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>3473</v>
+        <v>3472</v>
       </c>
       <c r="D30" s="16"/>
-      <c r="E30" s="58"/>
+      <c r="E30" s="58" t="s">
+        <v>3512</v>
+      </c>
       <c r="F30" s="16">
         <v>1</v>
       </c>
@@ -13684,7 +13710,7 @@
         <v>28</v>
       </c>
       <c r="I30" s="50" t="s">
-        <v>3496</v>
+        <v>3495</v>
       </c>
       <c r="J30" s="51">
         <v>99999999</v>
@@ -13693,7 +13719,7 @@
         <v>10</v>
       </c>
       <c r="L30" s="50" t="s">
-        <v>3433</v>
+        <v>3432</v>
       </c>
       <c r="M30" s="51">
         <v>11111111</v>
@@ -13707,7 +13733,7 @@
       <c r="T30" s="50"/>
       <c r="U30" s="52"/>
       <c r="V30" s="52" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
       <c r="W30" s="8"/>
       <c r="X30" s="8"/>
@@ -13752,10 +13778,12 @@
         <v>3423</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
       <c r="D31" s="16"/>
-      <c r="E31" s="58"/>
+      <c r="E31" s="58" t="s">
+        <v>3512</v>
+      </c>
       <c r="F31" s="16">
         <v>1</v>
       </c>
@@ -13766,7 +13794,7 @@
         <v>28</v>
       </c>
       <c r="I31" s="50" t="s">
-        <v>3497</v>
+        <v>3496</v>
       </c>
       <c r="J31" s="51">
         <v>99999999</v>
@@ -13775,7 +13803,7 @@
         <v>10</v>
       </c>
       <c r="L31" s="50" t="s">
-        <v>3433</v>
+        <v>3432</v>
       </c>
       <c r="M31" s="51">
         <v>11111111</v>
@@ -13832,10 +13860,12 @@
         <v>3423</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>3478</v>
+        <v>3477</v>
       </c>
       <c r="D32" s="16"/>
-      <c r="E32" s="58"/>
+      <c r="E32" s="58" t="s">
+        <v>3512</v>
+      </c>
       <c r="F32" s="16">
         <v>1</v>
       </c>
@@ -13846,7 +13876,7 @@
         <v>28</v>
       </c>
       <c r="I32" s="50" t="s">
-        <v>3498</v>
+        <v>3497</v>
       </c>
       <c r="J32" s="51">
         <v>99999999</v>
@@ -13855,7 +13885,7 @@
         <v>3</v>
       </c>
       <c r="L32" s="50" t="s">
-        <v>3459</v>
+        <v>3458</v>
       </c>
       <c r="M32" s="51">
         <v>11111111</v>
@@ -13868,7 +13898,7 @@
       <c r="S32" s="8"/>
       <c r="T32" s="50"/>
       <c r="U32" s="52" t="s">
-        <v>3499</v>
+        <v>3498</v>
       </c>
       <c r="V32" s="52"/>
       <c r="W32" s="8"/>
@@ -13914,12 +13944,14 @@
         <v>3423</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>3500</v>
-      </c>
-      <c r="E33" s="59"/>
+        <v>3499</v>
+      </c>
+      <c r="E33" s="59" t="s">
+        <v>3512</v>
+      </c>
       <c r="F33" s="23">
         <v>1</v>
       </c>
@@ -13930,7 +13962,7 @@
         <v>28</v>
       </c>
       <c r="I33" s="24" t="s">
-        <v>3501</v>
+        <v>3500</v>
       </c>
       <c r="J33" s="23">
         <v>99999999</v>
@@ -13939,13 +13971,13 @@
         <v>3.5</v>
       </c>
       <c r="L33" s="24" t="s">
-        <v>3502</v>
+        <v>3501</v>
       </c>
       <c r="M33" s="23">
         <v>258682000</v>
       </c>
       <c r="N33" s="24" t="s">
-        <v>3503</v>
+        <v>3502</v>
       </c>
       <c r="O33" s="24"/>
       <c r="P33" s="24"/>
@@ -13998,12 +14030,14 @@
         <v>3423</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>3500</v>
-      </c>
-      <c r="E34" s="59"/>
+        <v>3499</v>
+      </c>
+      <c r="E34" s="59" t="s">
+        <v>3512</v>
+      </c>
       <c r="F34" s="23">
         <v>1</v>
       </c>
@@ -14014,7 +14048,7 @@
         <v>28</v>
       </c>
       <c r="I34" s="24" t="s">
-        <v>3504</v>
+        <v>3503</v>
       </c>
       <c r="J34" s="23">
         <v>99999999</v>
@@ -14023,13 +14057,13 @@
         <v>30</v>
       </c>
       <c r="L34" s="24" t="s">
-        <v>3459</v>
+        <v>3458</v>
       </c>
       <c r="M34" s="23">
         <v>428641000</v>
       </c>
       <c r="N34" s="24" t="s">
-        <v>3505</v>
+        <v>3504</v>
       </c>
       <c r="O34" s="24"/>
       <c r="P34" s="24"/>
@@ -14075,7 +14109,9 @@
       <c r="BD34" s="24"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14088,19 +14124,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="14.35"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="12.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5" style="28" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="12.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.46875" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.46875" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.17578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.46875" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.46875" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.46875" style="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.46875" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.46875" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="12.46875" style="32" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.46875" style="28" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="12.46875" style="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="17.25" customHeight="1">
@@ -48887,17 +48923,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="14.35"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.83203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.46875" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.8203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.64453125" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.46875" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.64453125" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.46875" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.46875" style="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.46875" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.8203125" style="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.25" customHeight="1">
@@ -49776,18 +49812,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="14.35"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.64453125" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.8203125" style="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.6640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.46875" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.64453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.8203125" style="27" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.46875" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.46875" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.17578125" style="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" customHeight="1">
@@ -50892,18 +50928,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="14.35"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.64453125" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.8203125" style="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="67.6640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.1640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.64453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67.64453125" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.17578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.17578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.46875" style="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.64453125" style="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" customHeight="1">
